--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -486,7 +486,7 @@
 </t>
   </si>
   <si>
-    <t>ExtBool RequiereExamen</t>
+    <t>ExtBool Requiere Examen</t>
   </si>
   <si>
     <t>ServiceRequest.extension:AtencionPreferente</t>
@@ -518,7 +518,7 @@
     <t>Programa de Resolutividad local.</t>
   </si>
   <si>
-    <t>ExtBool ResolutividadAPS</t>
+    <t>ExtBool Resolutividad APS</t>
   </si>
   <si>
     <t>ServiceRequest.extension:OrigenInterconsulta</t>
@@ -547,7 +547,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Razones del porque se prioriza esta Interconsulta.</t>
+    <t>Razones del porque se prioriza esta Interconsulta.</t>
   </si>
   <si>
     <t>Extensión para fundamenta la priorización de la interconsulta</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>80</v>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>90</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -301,10 +301,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2675,13 +2675,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>81</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -996,7 +996,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1741,7 +1741,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSDerivadoParaCodigo</t>
@@ -1772,7 +1772,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1959,7 +1959,7 @@
     <t>One or more specimens that the laboratory procedure will use.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](specimen.html) resource points to the ServiceRequest.</t>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
   </si>
   <si>
     <t>SPM</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="658">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -615,6 +615,22 @@
   </si>
   <si>
     <t>Pertinencia Interconsulta</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:CorrespondeGES</t>
+  </si>
+  <si>
+    <t>CorrespondeGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/SospechaPatologiaGes}
+</t>
+  </si>
+  <si>
+    <t>Indica si corresponde a GES.</t>
+  </si>
+  <si>
+    <t>Indica si corresponde a GES</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2371,7 +2387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO102"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4650,43 +4666,41 @@
         <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4734,7 +4748,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4743,7 +4757,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>141</v>
@@ -4755,7 +4769,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4766,14 +4780,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4783,27 +4797,29 @@
         <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4851,7 +4867,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4863,30 +4879,30 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4897,27 +4913,29 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4966,53 +4984,53 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -5024,7 +5042,7 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>215</v>
@@ -5032,9 +5050,7 @@
       <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -5071,40 +5087,40 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF23" t="s" s="2">
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -5122,26 +5138,26 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>220</v>
@@ -5150,11 +5166,9 @@
         <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -5178,52 +5192,52 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5234,10 +5248,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5254,25 +5268,25 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5297,13 +5311,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5321,7 +5335,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5339,10 +5353,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5353,10 +5367,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5379,19 +5393,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5404,7 +5418,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5416,13 +5430,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5440,7 +5454,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5458,10 +5472,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5472,10 +5486,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5489,7 +5503,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
@@ -5498,18 +5512,20 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>81</v>
@@ -5557,7 +5573,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5575,10 +5591,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5589,10 +5605,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5606,7 +5622,7 @@
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5615,15 +5631,17 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5636,7 +5654,7 @@
         <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>81</v>
@@ -5672,7 +5690,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5690,10 +5708,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5704,10 +5722,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5730,17 +5748,15 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5789,7 +5805,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5807,10 +5823,10 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5821,10 +5837,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5835,7 +5851,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5847,16 +5863,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5906,13 +5922,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5921,13 +5937,13 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5938,10 +5954,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5964,16 +5980,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6023,7 +6039,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6038,13 +6054,13 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6062,7 +6078,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6081,15 +6097,17 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -6153,13 +6171,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6170,14 +6188,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6196,13 +6214,13 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6253,7 +6271,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6268,13 +6286,13 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6285,21 +6303,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6311,20 +6329,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6372,13 +6386,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -6387,13 +6401,13 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6404,44 +6418,46 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6450,7 +6466,7 @@
         <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>81</v>
@@ -6465,13 +6481,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6489,10 +6505,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -6504,27 +6520,27 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6550,13 +6566,13 @@
         <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6567,7 +6583,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6582,13 +6598,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6606,7 +6622,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>90</v>
@@ -6621,27 +6637,27 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6649,7 +6665,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6658,26 +6674,24 @@
         <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6686,7 +6700,7 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6701,11 +6715,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6723,13 +6739,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6738,16 +6754,16 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6755,10 +6771,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6772,25 +6788,29 @@
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6814,13 +6834,11 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6838,31 +6856,31 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6870,21 +6888,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6896,7 +6914,7 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>215</v>
@@ -6904,9 +6922,7 @@
       <c r="M39" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6943,40 +6959,40 @@
         <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AD39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6987,46 +7003,44 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -7062,19 +7076,19 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>223</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7086,16 +7100,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7106,10 +7120,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7117,31 +7131,35 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7189,28 +7207,28 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>213</v>
+        <v>354</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7221,21 +7239,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7247,7 +7265,7 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>215</v>
@@ -7255,9 +7273,7 @@
       <c r="M42" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7294,40 +7310,40 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF42" t="s" s="2">
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7338,46 +7354,44 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>221</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7413,40 +7427,40 @@
         <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>223</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7457,10 +7471,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7474,7 +7488,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -7483,18 +7497,20 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7542,7 +7558,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7560,10 +7576,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7574,10 +7590,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7585,13 +7601,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
@@ -7600,18 +7616,18 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7659,7 +7675,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7677,10 +7693,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7691,10 +7707,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7702,7 +7718,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7717,17 +7733,17 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7776,7 +7792,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7794,10 +7810,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7808,10 +7824,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7825,7 +7841,7 @@
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>81</v>
@@ -7834,19 +7850,17 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7895,7 +7909,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7913,10 +7927,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7927,10 +7941,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7953,19 +7967,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8014,7 +8028,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8032,10 +8046,10 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8046,10 +8060,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8063,7 +8077,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
@@ -8072,66 +8086,68 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q49" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8146,16 +8162,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8163,10 +8179,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8180,34 +8196,30 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q50" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>81</v>
@@ -8228,13 +8240,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8252,7 +8264,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8267,16 +8279,16 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8284,14 +8296,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8301,31 +8313,35 @@
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8345,11 +8361,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8367,7 +8385,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8382,31 +8400,31 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8416,24 +8434,26 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>210</v>
+        <v>423</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8458,13 +8478,11 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8482,7 +8500,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>212</v>
+        <v>421</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8494,41 +8512,41 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>213</v>
+        <v>429</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8540,7 +8558,7 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>215</v>
@@ -8548,9 +8566,7 @@
       <c r="M53" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8587,40 +8603,40 @@
         <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AD53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8631,46 +8647,44 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8706,19 +8720,19 @@
         <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>347</v>
+        <v>223</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8730,16 +8744,16 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8750,10 +8764,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8761,31 +8775,35 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8833,28 +8851,28 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>213</v>
+        <v>354</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8865,21 +8883,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8891,7 +8909,7 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>215</v>
@@ -8899,9 +8917,7 @@
       <c r="M56" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8938,40 +8954,40 @@
         <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF56" t="s" s="2">
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8982,46 +8998,44 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>354</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9057,40 +9071,40 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>357</v>
+        <v>223</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9101,10 +9115,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9118,7 +9132,7 @@
         <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>81</v>
@@ -9127,18 +9141,20 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9186,7 +9202,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9204,10 +9220,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9218,10 +9234,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9229,13 +9245,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
@@ -9244,18 +9260,18 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9303,7 +9319,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9321,10 +9337,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9335,10 +9351,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9346,7 +9362,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -9361,17 +9377,17 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9420,7 +9436,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9438,10 +9454,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9452,10 +9468,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9469,7 +9485,7 @@
         <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>81</v>
@@ -9478,19 +9494,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9539,7 +9553,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9557,10 +9571,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9571,10 +9585,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9597,19 +9611,19 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9658,7 +9672,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9676,10 +9690,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9690,21 +9704,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9716,18 +9730,20 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9751,13 +9767,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9775,16 +9791,16 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
@@ -9793,35 +9809,35 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9833,18 +9849,18 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>449</v>
+        <v>235</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9868,13 +9884,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9892,16 +9908,16 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>102</v>
@@ -9910,24 +9926,24 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9935,13 +9951,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>81</v>
@@ -9950,16 +9966,18 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10007,10 +10025,10 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>90</v>
@@ -10022,41 +10040,41 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AN65" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>462</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>81</v>
@@ -10065,13 +10083,13 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10122,10 +10140,10 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>90</v>
@@ -10137,31 +10155,31 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10180,13 +10198,13 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10237,7 +10255,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10252,31 +10270,31 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10295,13 +10313,13 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10328,13 +10346,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10352,7 +10370,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10367,31 +10385,31 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10401,7 +10419,7 @@
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>81</v>
@@ -10410,13 +10428,13 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10443,13 +10461,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10467,7 +10485,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10482,31 +10500,31 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10525,17 +10543,15 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -10584,7 +10600,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10599,31 +10615,31 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10633,7 +10649,7 @@
         <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>81</v>
@@ -10642,16 +10658,16 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>230</v>
+        <v>508</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10677,13 +10693,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10701,7 +10717,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10716,31 +10732,31 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>81</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10750,7 +10766,7 @@
         <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>81</v>
@@ -10759,16 +10775,16 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>503</v>
+        <v>235</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10794,13 +10810,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>81</v>
+        <v>523</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10818,13 +10834,13 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
@@ -10833,16 +10849,16 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10850,14 +10866,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>81</v>
+        <v>529</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10876,15 +10892,17 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>230</v>
+        <v>508</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10909,11 +10927,13 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y73" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z73" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10931,7 +10951,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10946,16 +10966,16 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>535</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -10980,22 +11000,22 @@
         <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>210</v>
+        <v>537</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>211</v>
+        <v>538</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11022,13 +11042,11 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11046,19 +11064,19 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>212</v>
+        <v>536</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
@@ -11067,10 +11085,10 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>213</v>
+        <v>540</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11078,21 +11096,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11104,7 +11122,7 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>215</v>
@@ -11112,9 +11130,7 @@
       <c r="M75" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N75" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11151,40 +11167,40 @@
         <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF75" t="s" s="2">
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11195,46 +11211,44 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11270,19 +11284,19 @@
         <v>81</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>347</v>
+        <v>223</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11294,16 +11308,16 @@
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11314,10 +11328,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11325,31 +11339,35 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11397,28 +11415,28 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>213</v>
+        <v>354</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
@@ -11429,21 +11447,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11455,7 +11473,7 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>215</v>
@@ -11463,9 +11481,7 @@
       <c r="M78" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11502,40 +11518,40 @@
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AD78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF78" t="s" s="2">
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11546,46 +11562,44 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>354</v>
+        <v>221</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11621,40 +11635,40 @@
         <v>81</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>357</v>
+        <v>223</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11665,10 +11679,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11676,13 +11690,13 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>81</v>
@@ -11691,18 +11705,20 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11750,7 +11766,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11768,10 +11784,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -11782,10 +11798,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11793,13 +11809,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>81</v>
@@ -11808,18 +11824,18 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11867,7 +11883,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11885,10 +11901,10 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -11899,10 +11915,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11910,7 +11926,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>90</v>
@@ -11925,17 +11941,17 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -11984,7 +12000,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12002,10 +12018,10 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
@@ -12016,10 +12032,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12033,7 +12049,7 @@
         <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>81</v>
@@ -12042,19 +12058,17 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -12103,7 +12117,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12121,10 +12135,10 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -12135,10 +12149,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12161,19 +12175,19 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O84" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -12222,7 +12236,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12240,10 +12254,10 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12254,10 +12268,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12268,7 +12282,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12280,16 +12294,20 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>548</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>549</v>
+        <v>396</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12337,13 +12355,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>547</v>
+        <v>400</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -12355,13 +12373,13 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>551</v>
+        <v>402</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12383,10 +12401,10 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>81</v>
@@ -12395,17 +12413,15 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>230</v>
+        <v>553</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N86" t="s" s="2">
         <v>555</v>
       </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
@@ -12430,11 +12446,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y86" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z86" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12467,16 +12485,16 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>557</v>
+        <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>558</v>
+        <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -12484,10 +12502,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12498,10 +12516,10 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>81</v>
@@ -12510,16 +12528,16 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12545,13 +12563,11 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -12569,7 +12585,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12584,16 +12600,16 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -12601,10 +12617,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12624,18 +12640,20 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12684,7 +12702,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12699,16 +12717,16 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AN88" t="s" s="2">
-        <v>81</v>
+        <v>565</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12716,14 +12734,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12733,7 +12751,7 @@
         <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>81</v>
@@ -12742,17 +12760,15 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12789,19 +12805,19 @@
         <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>582</v>
+        <v>81</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12816,13 +12832,13 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12833,23 +12849,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>91</v>
@@ -12861,16 +12875,16 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12908,19 +12922,19 @@
         <v>81</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>81</v>
+        <v>588</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12935,13 +12949,13 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -12952,23 +12966,23 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>91</v>
@@ -12980,16 +12994,16 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13039,7 +13053,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13054,13 +13068,13 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13071,23 +13085,23 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>91</v>
@@ -13099,16 +13113,16 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13158,7 +13172,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13173,13 +13187,13 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -13190,16 +13204,16 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13218,16 +13232,16 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13277,7 +13291,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13292,13 +13306,13 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
@@ -13309,16 +13323,16 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13337,16 +13351,16 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13396,7 +13410,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13411,13 +13425,13 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13428,16 +13442,16 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13456,16 +13470,16 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13515,7 +13529,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13530,13 +13544,13 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
@@ -13547,23 +13561,23 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>91</v>
@@ -13575,16 +13589,16 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13634,7 +13648,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13649,13 +13663,13 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
@@ -13666,16 +13680,16 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13694,16 +13708,16 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13753,7 +13767,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13768,13 +13782,13 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>81</v>
@@ -13785,14 +13799,16 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="D98" t="s" s="2">
-        <v>81</v>
+        <v>582</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13802,25 +13818,25 @@
         <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13870,7 +13886,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13885,13 +13901,13 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>81</v>
+        <v>589</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
@@ -13902,14 +13918,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>627</v>
+        <v>81</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13928,20 +13944,18 @@
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>230</v>
+        <v>625</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>631</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>81</v>
       </c>
@@ -13965,13 +13979,13 @@
         <v>81</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>632</v>
+        <v>81</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>633</v>
+        <v>81</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>81</v>
@@ -13989,7 +14003,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14007,28 +14021,28 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>635</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>81</v>
+        <v>632</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14044,19 +14058,23 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>637</v>
+        <v>235</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>50</v>
+        <v>633</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14080,13 +14098,13 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>81</v>
+        <v>637</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>81</v>
+        <v>638</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -14104,7 +14122,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14119,27 +14137,27 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO100" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>641</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14150,7 +14168,7 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>81</v>
@@ -14159,16 +14177,16 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>209</v>
+        <v>642</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14219,13 +14237,13 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>81</v>
@@ -14234,10 +14252,10 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>81</v>
+        <v>644</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>645</v>
@@ -14246,15 +14264,15 @@
         <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>81</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14265,7 +14283,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -14274,10 +14292,10 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>647</v>
+        <v>214</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>648</v>
@@ -14285,9 +14303,7 @@
       <c r="M102" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>650</v>
-      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14336,13 +14352,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14351,23 +14367,140 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="AL102" t="s" s="2">
+      <c r="B103" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM102" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO102" t="s" s="2">
+      <c r="AM103" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO103" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO102">
+  <autoFilter ref="A1:AO103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14377,7 +14510,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="653">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,7 +374,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -617,22 +617,6 @@
     <t>Pertinencia Interconsulta</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:CorrespondeGES</t>
-  </si>
-  <si>
-    <t>CorrespondeGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/SospechaPatologiaGes}
-</t>
-  </si>
-  <si>
-    <t>Indica si corresponde a GES.</t>
-  </si>
-  <si>
-    <t>Indica si corresponde a GES</t>
-  </si>
-  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -776,7 +760,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -861,7 +845,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -886,7 +870,7 @@
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -930,7 +914,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1|MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -956,7 +940,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1412,7 +1396,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1549,7 +1533,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1644,7 +1628,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1735,7 +1719,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1778,7 +1762,7 @@
     <t>ServiceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1803,7 +1787,7 @@
     <t>ServiceRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1829,7 +1813,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1965,7 +1949,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -2006,7 +1990,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -2049,7 +2033,7 @@
     <t>ServiceRequest.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2387,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2396,17 +2380,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="34.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.91796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.46484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2415,27 +2399,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="122.26171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.9140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="109.59375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.13671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.67578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="141.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="53.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4666,41 +4650,43 @@
         <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4748,7 +4734,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4757,7 +4743,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>141</v>
@@ -4769,7 +4755,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4780,14 +4766,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4797,29 +4783,27 @@
         <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4867,7 +4851,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4879,30 +4863,30 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4913,29 +4897,27 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4984,53 +4966,53 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -5042,7 +5024,7 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>215</v>
@@ -5050,7 +5032,9 @@
       <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -5087,31 +5071,31 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -5120,7 +5104,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -5138,26 +5122,26 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>220</v>
@@ -5166,9 +5150,11 @@
         <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -5192,52 +5178,52 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5248,10 +5234,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5268,25 +5254,25 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5311,13 +5297,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5335,7 +5321,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5353,10 +5339,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5367,10 +5353,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5393,19 +5379,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5418,7 +5404,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5430,13 +5416,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5454,7 +5440,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5472,10 +5458,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5486,10 +5472,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5503,7 +5489,7 @@
         <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
@@ -5512,20 +5498,18 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5537,7 +5521,7 @@
         <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>81</v>
@@ -5573,7 +5557,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5591,10 +5575,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5605,10 +5589,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5622,7 +5606,7 @@
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5631,17 +5615,15 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5654,7 +5636,7 @@
         <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>81</v>
@@ -5690,7 +5672,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5708,10 +5690,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5722,10 +5704,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5748,15 +5730,17 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5805,7 +5789,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5823,10 +5807,10 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5837,10 +5821,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5851,7 +5835,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5863,16 +5847,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5922,13 +5906,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5937,13 +5921,13 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5954,10 +5938,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5980,16 +5964,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6039,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6054,13 +6038,13 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6078,7 +6062,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6097,17 +6081,15 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -6171,13 +6153,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6188,14 +6170,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6214,13 +6196,13 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6271,7 +6253,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6286,13 +6268,13 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6303,21 +6285,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6329,16 +6311,20 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6386,13 +6372,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -6401,13 +6387,13 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6418,46 +6404,44 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6466,7 +6450,7 @@
         <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>81</v>
@@ -6481,13 +6465,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6505,10 +6489,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -6520,27 +6504,27 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6566,13 +6550,13 @@
         <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6583,7 +6567,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6598,13 +6582,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6622,7 +6606,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>90</v>
@@ -6637,27 +6621,27 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>133</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6665,7 +6649,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6674,24 +6658,26 @@
         <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6700,7 +6686,7 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6715,37 +6701,35 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6754,16 +6738,16 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6771,10 +6755,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6788,29 +6772,25 @@
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6834,11 +6814,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6856,31 +6838,31 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>212</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6888,21 +6870,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6914,7 +6896,7 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>215</v>
@@ -6922,7 +6904,9 @@
       <c r="M39" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6959,31 +6943,31 @@
         <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6992,7 +6976,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -7003,44 +6987,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -7076,19 +7062,19 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7100,16 +7086,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7120,10 +7106,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7131,35 +7117,31 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7207,28 +7189,28 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7239,21 +7221,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7265,7 +7247,7 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>215</v>
@@ -7273,7 +7255,9 @@
       <c r="M42" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7310,31 +7294,31 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -7343,7 +7327,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7354,44 +7338,46 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7427,40 +7413,40 @@
         <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7471,10 +7457,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7488,7 +7474,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -7497,20 +7483,18 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7558,7 +7542,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7576,10 +7560,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7590,10 +7574,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7601,13 +7585,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
@@ -7616,18 +7600,18 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7675,7 +7659,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7693,10 +7677,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7707,10 +7691,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7718,7 +7702,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7733,17 +7717,17 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7792,7 +7776,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7810,10 +7794,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7824,10 +7808,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7841,7 +7825,7 @@
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>81</v>
@@ -7850,17 +7834,19 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7909,7 +7895,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7927,10 +7913,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7941,10 +7927,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7967,19 +7953,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8028,7 +8014,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8046,10 +8032,10 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8060,10 +8046,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8077,7 +8063,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
@@ -8086,68 +8072,66 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N49" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8162,16 +8146,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8179,10 +8163,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8196,30 +8180,34 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>110</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q50" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>81</v>
@@ -8240,31 +8228,31 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8279,16 +8267,16 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8296,14 +8284,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8313,79 +8301,73 @@
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="N51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q51" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8400,31 +8382,31 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8434,26 +8416,24 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8478,11 +8458,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8500,7 +8482,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>421</v>
+        <v>212</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8512,41 +8494,41 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>213</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8558,7 +8540,7 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>215</v>
@@ -8566,7 +8548,9 @@
       <c r="M53" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8603,31 +8587,31 @@
         <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8636,7 +8620,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8647,44 +8631,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8720,19 +8706,19 @@
         <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8744,16 +8730,16 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8764,10 +8750,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8775,35 +8761,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8851,28 +8833,28 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8883,21 +8865,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8909,7 +8891,7 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>215</v>
@@ -8917,7 +8899,9 @@
       <c r="M56" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8954,31 +8938,31 @@
         <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
@@ -8987,7 +8971,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8998,44 +8982,46 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9071,40 +9057,40 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9115,10 +9101,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9132,7 +9118,7 @@
         <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>81</v>
@@ -9141,20 +9127,18 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9202,7 +9186,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9220,10 +9204,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9234,10 +9218,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9245,13 +9229,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
@@ -9260,18 +9244,18 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9319,7 +9303,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9337,10 +9321,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9351,10 +9335,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9362,7 +9346,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -9377,17 +9361,17 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9436,7 +9420,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9454,10 +9438,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9468,10 +9452,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9485,7 +9469,7 @@
         <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>81</v>
@@ -9494,17 +9478,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9553,7 +9539,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9571,10 +9557,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9585,10 +9571,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9611,19 +9597,19 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9672,7 +9658,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9690,10 +9676,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9704,21 +9690,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9730,20 +9716,18 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9767,13 +9751,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9791,16 +9775,16 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
@@ -9809,35 +9793,35 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9849,18 +9833,18 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>235</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9884,40 +9868,40 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>102</v>
@@ -9926,24 +9910,24 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9951,13 +9935,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>81</v>
@@ -9966,18 +9950,16 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10025,10 +10007,10 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>90</v>
@@ -10040,41 +10022,41 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>81</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>81</v>
@@ -10083,13 +10065,13 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10140,10 +10122,10 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>90</v>
@@ -10155,31 +10137,31 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10198,13 +10180,13 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10255,7 +10237,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10270,31 +10252,31 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10313,13 +10295,13 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10346,13 +10328,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10370,7 +10352,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10385,31 +10367,31 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10419,7 +10401,7 @@
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>81</v>
@@ -10428,13 +10410,13 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10461,13 +10443,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10485,7 +10467,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10500,31 +10482,31 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10543,15 +10525,17 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -10600,7 +10584,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10615,31 +10599,31 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10649,7 +10633,7 @@
         <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>81</v>
@@ -10658,16 +10642,16 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>508</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10693,13 +10677,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10717,7 +10701,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10732,31 +10716,31 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>516</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10766,7 +10750,7 @@
         <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>81</v>
@@ -10775,16 +10759,16 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>235</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10810,37 +10794,37 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
       <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
@@ -10849,16 +10833,16 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10866,14 +10850,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10892,17 +10876,15 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>508</v>
+        <v>230</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10927,13 +10909,11 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10951,7 +10931,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10966,16 +10946,16 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>533</v>
+        <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>535</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -11000,22 +10980,22 @@
         <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>537</v>
+        <v>210</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>538</v>
+        <v>211</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11042,11 +11022,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11064,19 +11046,19 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>212</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
@@ -11085,10 +11067,10 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>540</v>
+        <v>213</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11096,21 +11078,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11122,7 +11104,7 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>215</v>
@@ -11130,7 +11112,9 @@
       <c r="M75" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11167,31 +11151,31 @@
         <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>81</v>
@@ -11200,7 +11184,7 @@
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11211,44 +11195,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11284,19 +11270,19 @@
         <v>81</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11308,16 +11294,16 @@
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11328,10 +11314,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11339,35 +11325,31 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11415,28 +11397,28 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
@@ -11447,21 +11429,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11473,7 +11455,7 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>215</v>
@@ -11481,7 +11463,9 @@
       <c r="M78" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11518,31 +11502,31 @@
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
@@ -11551,7 +11535,7 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11562,44 +11546,46 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11635,40 +11621,40 @@
         <v>81</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11679,10 +11665,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11690,13 +11676,13 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>81</v>
@@ -11705,20 +11691,18 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11766,7 +11750,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11784,10 +11768,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -11798,10 +11782,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11809,13 +11793,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>81</v>
@@ -11824,18 +11808,18 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11883,7 +11867,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11901,10 +11885,10 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -11915,10 +11899,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11926,7 +11910,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>90</v>
@@ -11941,17 +11925,17 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -12000,7 +11984,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12018,10 +12002,10 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
@@ -12032,10 +12016,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12049,7 +12033,7 @@
         <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>81</v>
@@ -12058,17 +12042,19 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -12117,7 +12103,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12135,10 +12121,10 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -12149,10 +12135,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12175,19 +12161,19 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -12236,7 +12222,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12254,10 +12240,10 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12268,10 +12254,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12282,7 +12268,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -12294,20 +12280,16 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>214</v>
+        <v>548</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>396</v>
+        <v>549</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12355,13 +12337,13 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>400</v>
+        <v>547</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
@@ -12373,13 +12355,13 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>402</v>
+        <v>551</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12401,10 +12383,10 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>81</v>
@@ -12413,15 +12395,17 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
@@ -12446,13 +12430,11 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>81</v>
+        <v>556</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12485,16 +12467,16 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -12502,10 +12484,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12516,10 +12498,10 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>81</v>
@@ -12528,16 +12510,16 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>235</v>
+        <v>562</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12563,29 +12545,31 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12600,16 +12584,16 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -12617,10 +12601,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12640,20 +12624,18 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12702,7 +12684,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12717,16 +12699,16 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>565</v>
+        <v>81</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12734,14 +12716,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12751,7 +12733,7 @@
         <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>81</v>
@@ -12760,15 +12742,17 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12805,19 +12789,19 @@
         <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>81</v>
+        <v>582</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12832,13 +12816,13 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12849,21 +12833,23 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="D90" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>91</v>
@@ -12875,16 +12861,16 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12922,19 +12908,19 @@
         <v>81</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12949,13 +12935,13 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -12966,23 +12952,23 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="B91" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="D91" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>91</v>
@@ -12994,16 +12980,16 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="M91" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13053,7 +13039,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13068,13 +13054,13 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13085,23 +13071,23 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="B92" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="D92" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>91</v>
@@ -13113,16 +13099,16 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="M92" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13172,7 +13158,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13187,13 +13173,13 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -13204,16 +13190,16 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="B93" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="D93" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13232,16 +13218,16 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13291,7 +13277,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13306,13 +13292,13 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
@@ -13323,16 +13309,16 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="B94" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="D94" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13351,16 +13337,16 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="M94" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13410,7 +13396,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13425,13 +13411,13 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13442,16 +13428,16 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="B95" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="D95" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13470,16 +13456,16 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>611</v>
-      </c>
       <c r="M95" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13529,7 +13515,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13544,13 +13530,13 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
@@ -13561,23 +13547,23 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="B96" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>613</v>
-      </c>
       <c r="D96" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>91</v>
@@ -13589,16 +13575,16 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="M96" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13648,7 +13634,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13663,13 +13649,13 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
@@ -13680,16 +13666,16 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="B97" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="D97" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13708,16 +13694,16 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>619</v>
-      </c>
       <c r="M97" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13767,7 +13753,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13782,13 +13768,13 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>81</v>
@@ -13799,16 +13785,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>582</v>
+        <v>81</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13818,25 +13802,25 @@
         <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K98" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13886,7 +13870,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13901,13 +13885,13 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>589</v>
+        <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
@@ -13918,14 +13902,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13944,18 +13928,20 @@
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>625</v>
+        <v>230</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>631</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>81</v>
       </c>
@@ -13979,13 +13965,13 @@
         <v>81</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>81</v>
+        <v>632</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>81</v>
+        <v>633</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>81</v>
@@ -14003,7 +13989,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14021,28 +14007,28 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>81</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>632</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14058,23 +14044,19 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>637</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>633</v>
+        <v>50</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14098,13 +14080,13 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>637</v>
+        <v>81</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>638</v>
+        <v>81</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -14122,7 +14104,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14137,27 +14119,27 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>81</v>
+        <v>639</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>629</v>
+        <v>447</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14168,7 +14150,7 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>81</v>
@@ -14177,16 +14159,16 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>642</v>
+        <v>209</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>50</v>
+        <v>643</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14237,13 +14219,13 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>81</v>
@@ -14252,10 +14234,10 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>644</v>
+        <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>645</v>
@@ -14264,15 +14246,15 @@
         <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>646</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14283,7 +14265,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -14292,10 +14274,10 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>214</v>
+        <v>647</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>648</v>
@@ -14303,7 +14285,9 @@
       <c r="M102" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="N102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14352,13 +14336,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14367,140 +14351,23 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>81</v>
+        <v>651</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>452</v>
+        <v>133</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO103" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO103">
+  <autoFilter ref="A1:AO102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14510,7 +14377,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
